--- a/doc/ue_resource_load.xlsx
+++ b/doc/ue_resource_load.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guanzhongdaoke\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBCCC5D-41D4-4B3B-8EAA-C5CD47E4827E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="资源同步加载" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="116">
   <si>
     <t>UObject* StaticLoadObject(UClass* ObjectClass, UObject* InOuter, const TCHAR* InName, const TCHAR* Filename, uint32 LoadFlags, UPackageMap* Sandbox, bool bAllowObjectReconciliation, const FLinkerInstancingContext* InstancingContext)</t>
   </si>
@@ -99,239 +98,347 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>FFileHelper::LoadFileToString( FString&amp; Result, const TCHAR* Filename, EHashOptions VerifyFlags, uint32 ReadFlags)</t>
+  </si>
+  <si>
+    <t>TUniquePtr&lt;FArchive&gt; Reader(IFileManager::Get().CreateFileReader(Filename, ReadFlags));</t>
+  </si>
+  <si>
+    <t>return LoadFileToString(Result, *Reader.Get(), VerifyFlags);</t>
+  </si>
+  <si>
+    <t>打开文件，内部使用OpenRead获取对应句柄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阻塞读取，内部获取文件大小，分配内存，读取内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (RequestID != INDEX_NONE)</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>FlushAsyncLoading(RequestID);</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>根据上面返回的请求ID，一直死循环的等待其结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阻塞，主要就是下面这个函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死等资源加载结束，如果传递的是-1，则表示等待所有资源加载结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以FStreamableManager类举例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FStreamableManager::RequestAsyncLoad(TArray&lt;FSoftObjectPath&gt; TargetsToStream, FStreamableDelegate DelegateToCall, TAsyncLoadPriority Priority, bool bManageActiveHandle, bool bStartStalled, FString DebugName)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32 RequestID = LoadPackageAsync(InName, nullptr, *InPackageName);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用LoadPackageAsync（并没有传回调函数），内部会将加载请求插入到独立线程队列中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非编辑器模式下，走异步加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！这个就是卡顿的核心点，下面重点聊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32 RequestId = LoadPackageAsync(Package, FLoadPackageAsyncDelegate::CreateSP(Handle, &amp;FStreamableHandle::AsyncLoadCallbackWrapper, TargetName), Priority);</t>
+  </si>
+  <si>
+    <t>内部会发起异步加载，且会传入回调函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待异步加载完成后，会调用该函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会创建对应的FStreamableHandle句柄独享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！这个是重点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身的具体逻辑先不谈，就看资源怎么加载的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意，这个函数传入的回调函数，并不是底层资源异步加载的回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FStreamableManager::StartHandleRequests(TSharedRef&lt;FStreamableHandle&gt; Handle)</t>
+  </si>
+  <si>
+    <t>StartHandleRequests(NewRequest);</t>
+  </si>
+  <si>
+    <t>FStreamable* FStreamableManager::StreamInternal(const FSoftObjectPath&amp; InTargetName, TAsyncLoadPriority Priority, TSharedRef&lt;FStreamableHandle&gt; Handle)</t>
+  </si>
+  <si>
+    <t>FStreamable* Existing = StreamInternal(Handle-&gt;RequestedAssets[i], Handle-&gt;Priority, Handle);</t>
+  </si>
+  <si>
+    <t>void FStreamableHandle::AsyncLoadCallbackWrapper(const FName&amp; PackageName, UPackage* Package, EAsyncLoadingResult::Type Result, FSoftObjectPath TargetName)</t>
+  </si>
+  <si>
+    <t>check(IsInGameThread());</t>
+  </si>
+  <si>
+    <t>// Needed so we can bind with a shared pointer for safety</t>
+  </si>
+  <si>
+    <t>if (OwningManager)</t>
+  </si>
+  <si>
+    <t>OwningManager-&gt;AsyncLoadCallback(TargetName);</t>
+  </si>
+  <si>
+    <t>if (!HasLoadCompleted())</t>
+  </si>
+  <si>
+    <t>CallUpdateDelegate();</t>
+  </si>
+  <si>
+    <t>else if (!bCanceled)</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogStreamableManager, Verbose, TEXT("FStreamableHandle::AsyncLoadCallbackWrapper called on request %s with result %d with no active manager!"), *DebugName, (int32)Result);</t>
+  </si>
+  <si>
+    <t>资源异步加载的回调，在其内部在调用外层传入的回调函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FlushAsyncLoading(int32 PackageID /* = INDEX_NONE */)</t>
+  </si>
+  <si>
+    <t>GPackageLoader-&gt;FlushLoading(PackageID);</t>
+  </si>
+  <si>
+    <t>void FAsyncLoadingThread::FlushLoading(int32 PackageID)</t>
+  </si>
+  <si>
+    <t>// Flush async loaders by not using a time limit. Needed for e.g. garbage collection.</t>
+  </si>
+  <si>
+    <t>TUniquePtr&lt;FFlushTree&gt; FlushTree;</t>
+  </si>
+  <si>
+    <t>if (PackageID != INDEX_NONE)</t>
+  </si>
+  <si>
+    <t>FlushTree = MakeUnique&lt;FFlushTree&gt;(PackageID);</t>
+  </si>
+  <si>
+    <t>SCOPE_CYCLE_COUNTER(STAT_FAsyncPackage_TickAsyncLoadingGameThread);</t>
+  </si>
+  <si>
+    <t>while (IsAsyncLoadingPackages())</t>
+  </si>
+  <si>
+    <t>EAsyncPackageState::Type Result = TickAsyncLoading(false, false, 0, FlushTree.Get());</t>
+  </si>
+  <si>
+    <t>break;</t>
+  </si>
+  <si>
+    <t>if (IsMultithreaded())</t>
+  </si>
+  <si>
+    <t>// Update the heartbeat and sleep. If we're not multithreading, the heartbeat is updated after each package has been processed</t>
+  </si>
+  <si>
+    <t>FThreadHeartBeat::Get().HeartBeat();</t>
+  </si>
+  <si>
+    <t>FPlatformProcess::SleepNoStats(0.0001f);</t>
+  </si>
+  <si>
+    <t>FCoreUObjectDelegates::LoadingMap.Broadcast();</t>
+  </si>
+  <si>
+    <t>// push stats so that we don't overflow number of tags per thread during blocking loading</t>
+  </si>
+  <si>
+    <t>LLM_PUSH_STATS_FOR_ASSET_TAGS();</t>
+  </si>
+  <si>
+    <t>if (PackageID != INDEX_NONE &amp;&amp; !ContainsRequestID(PackageID))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果传入的参数不为INDEX_NONE，且其已经加载完毕了，则跳出循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否则，一直在等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlushAsyncLoading();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重点在下面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>！！！内部调用FlushAsyncLoading();强制会等待所有异步资源的加载完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FFileHelper::LoadFileToString( FString&amp; Result, const TCHAR* Filename, EHashOptions VerifyFlags, uint32 ReadFlags)</t>
-  </si>
-  <si>
-    <t>TUniquePtr&lt;FArchive&gt; Reader(IFileManager::Get().CreateFileReader(Filename, ReadFlags));</t>
-  </si>
-  <si>
-    <t>return LoadFileToString(Result, *Reader.Get(), VerifyFlags);</t>
-  </si>
-  <si>
-    <t>打开文件，内部使用OpenRead获取对应句柄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阻塞读取，内部获取文件大小，分配内存，读取内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if (RequestID != INDEX_NONE)</t>
+    <t>FlushAsyncLoading(RequestID);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于该函数的参数说明：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果传入的是INDEX_NONE，就死等所有异步资源加载完毕（往往会等待较长时间）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果传入的是非INDEX_NONE，则仅仅死等自己加载完毕（和其他正在加载的资源没关系）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！死循环检测！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlushAsyncLoading();</t>
+  </si>
+  <si>
+    <t>bool UEngine::LoadMap( FWorldContext&amp; WorldContext, FURL URL, class UPendingNetGame* Pending, FString&amp; Error )</t>
+  </si>
+  <si>
+    <t>如果大世界，这个里面就很有可能包含正在加载的流式关卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们逻辑层自己发起的异步加载请求，例如模型，资源，UI等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool ULevelStreaming::RequestLevel(UWorld* PersistentWorld, bool bAllowLevelLoadRequests, EReqLevelBlock BlockPolicy)</t>
+  </si>
+  <si>
+    <t>if (BlockPolicy == AlwaysBlock || (ShouldBeAlwaysLoaded() &amp;&amp; BlockPolicy != NeverBlock))</t>
+  </si>
+  <si>
+    <t>如果设置该子关卡需要阻塞加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void BeginLoad(FUObjectSerializeContext* LoadContext, const TCHAR* DebugContext)</t>
+  </si>
+  <si>
+    <t>if (!LoadContext-&gt;HasStartedLoading() &amp;&amp; !IsInAsyncLoadingThread())</t>
   </si>
   <si>
     <t>{</t>
-  </si>
-  <si>
-    <t>FlushAsyncLoading(RequestID);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>}</t>
-  </si>
-  <si>
-    <t>根据上面返回的请求ID，一直死循环的等待其结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阻塞，主要就是下面这个函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死等资源加载结束，如果传递的是-1，则表示等待所有资源加载结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以FStreamableManager类举例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FStreamableManager::RequestAsyncLoad(TArray&lt;FSoftObjectPath&gt; TargetsToStream, FStreamableDelegate DelegateToCall, TAsyncLoadPriority Priority, bool bManageActiveHandle, bool bStartStalled, FString DebugName)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32 RequestID = LoadPackageAsync(InName, nullptr, *InPackageName);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用LoadPackageAsync（并没有传回调函数），内部会将加载请求插入到独立线程队列中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非编辑器模式下，走异步加载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！这个就是卡顿的核心点，下面重点聊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32 RequestId = LoadPackageAsync(Package, FLoadPackageAsyncDelegate::CreateSP(Handle, &amp;FStreamableHandle::AsyncLoadCallbackWrapper, TargetName), Priority);</t>
-  </si>
-  <si>
-    <t>内部会发起异步加载，且会传入回调函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待异步加载完成后，会调用该函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会创建对应的FStreamableHandle句柄独享</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！这个是重点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自身的具体逻辑先不谈，就看资源怎么加载的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意，这个函数传入的回调函数，并不是底层资源异步加载的回调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void FStreamableManager::StartHandleRequests(TSharedRef&lt;FStreamableHandle&gt; Handle)</t>
-  </si>
-  <si>
-    <t>StartHandleRequests(NewRequest);</t>
-  </si>
-  <si>
-    <t>FStreamable* FStreamableManager::StreamInternal(const FSoftObjectPath&amp; InTargetName, TAsyncLoadPriority Priority, TSharedRef&lt;FStreamableHandle&gt; Handle)</t>
-  </si>
-  <si>
-    <t>FStreamable* Existing = StreamInternal(Handle-&gt;RequestedAssets[i], Handle-&gt;Priority, Handle);</t>
-  </si>
-  <si>
-    <t>void FStreamableHandle::AsyncLoadCallbackWrapper(const FName&amp; PackageName, UPackage* Package, EAsyncLoadingResult::Type Result, FSoftObjectPath TargetName)</t>
-  </si>
-  <si>
-    <t>check(IsInGameThread());</t>
-  </si>
-  <si>
-    <t>// Needed so we can bind with a shared pointer for safety</t>
-  </si>
-  <si>
-    <t>if (OwningManager)</t>
-  </si>
-  <si>
-    <t>OwningManager-&gt;AsyncLoadCallback(TargetName);</t>
-  </si>
-  <si>
-    <t>if (!HasLoadCompleted())</t>
-  </si>
-  <si>
-    <t>CallUpdateDelegate();</t>
-  </si>
-  <si>
-    <t>else if (!bCanceled)</t>
-  </si>
-  <si>
-    <t>UE_LOG(LogStreamableManager, Verbose, TEXT("FStreamableHandle::AsyncLoadCallbackWrapper called on request %s with result %d with no active manager!"), *DebugName, (int32)Result);</t>
-  </si>
-  <si>
-    <t>资源异步加载的回调，在其内部在调用外层传入的回调函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FlushAsyncLoading(RequestID);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void FlushAsyncLoading(int32 PackageID /* = INDEX_NONE */)</t>
-  </si>
-  <si>
-    <t>GPackageLoader-&gt;FlushLoading(PackageID);</t>
-  </si>
-  <si>
-    <t>void FAsyncLoadingThread::FlushLoading(int32 PackageID)</t>
-  </si>
-  <si>
-    <t>// Flush async loaders by not using a time limit. Needed for e.g. garbage collection.</t>
-  </si>
-  <si>
-    <t>TUniquePtr&lt;FFlushTree&gt; FlushTree;</t>
-  </si>
-  <si>
-    <t>if (PackageID != INDEX_NONE)</t>
-  </si>
-  <si>
-    <t>FlushTree = MakeUnique&lt;FFlushTree&gt;(PackageID);</t>
-  </si>
-  <si>
-    <t>SCOPE_CYCLE_COUNTER(STAT_FAsyncPackage_TickAsyncLoadingGameThread);</t>
-  </si>
-  <si>
-    <t>while (IsAsyncLoadingPackages())</t>
-  </si>
-  <si>
-    <t>EAsyncPackageState::Type Result = TickAsyncLoading(false, false, 0, FlushTree.Get());</t>
-  </si>
-  <si>
-    <t>break;</t>
-  </si>
-  <si>
-    <t>if (IsMultithreaded())</t>
-  </si>
-  <si>
-    <t>// Update the heartbeat and sleep. If we're not multithreading, the heartbeat is updated after each package has been processed</t>
-  </si>
-  <si>
-    <t>FThreadHeartBeat::Get().HeartBeat();</t>
-  </si>
-  <si>
-    <t>FPlatformProcess::SleepNoStats(0.0001f);</t>
-  </si>
-  <si>
-    <t>FCoreUObjectDelegates::LoadingMap.Broadcast();</t>
-  </si>
-  <si>
-    <t>// push stats so that we don't overflow number of tags per thread during blocking loading</t>
-  </si>
-  <si>
-    <t>LLM_PUSH_STATS_FOR_ASSET_TAGS();</t>
-  </si>
-  <si>
-    <t>if (PackageID != INDEX_NONE &amp;&amp; !ContainsRequestID(PackageID))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果传入的参数不为INDEX_NONE，且其已经加载完毕了，则跳出循环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否则，一直在等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果传入的是INDEX_NONE，就死等所有异步资源加载完毕，这个就是卡顿的地方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！从此处可以看出：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果传入的是非INDEX_NONE，则仅仅死等自己加载完毕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FlushAsyncLoading();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void CollectGarbageInternal(EObjectFlags KeepFlags, bool bPerformFullPurge)</t>
+  </si>
+  <si>
+    <t>if (GFlushStreamingOnGC)</t>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该开关默认时不开启的，最好也别开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般发生在切换到新地图后，引擎阻塞加载周边子关卡时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景切换时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销毁老场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流式关卡加载时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑器模式下LoadObject加载资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GC时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载新场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如主线程调用LoadObject，在编辑器模式下会走到BeginLoad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始切换地图前，需要强制将当前地图中所有异步加载的资源全部处理完毕，往往也是卡顿点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UWorld::FlushLevelStreaming(EFlushLevelStreamingType FlushType)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如BlockTillLevelStreamingCompleted</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -676,11 +783,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:S39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:S41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:Y27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -786,144 +893,162 @@
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
-      <c r="C21" s="3">
-        <v>2</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
-      <c r="D23" s="1"/>
-      <c r="E23" t="s">
-        <v>12</v>
-      </c>
+      <c r="C23" s="3">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="D24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="D25" s="1"/>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="D26" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
+      <c r="D27" s="1"/>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="2"/>
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B30" s="2">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B32" s="2">
         <v>1</v>
       </c>
-      <c r="C30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B31" s="2"/>
-      <c r="D31" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B32" s="2"/>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>22</v>
+      <c r="C32" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
-      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1" t="s">
-        <v>25</v>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
-      <c r="C35" s="1">
-        <v>2</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
+      <c r="C35" s="1"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
+      <c r="C37" s="1">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -933,7 +1058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230F35FC-2285-484B-B82A-C79234C63766}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:T29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1035,7 +1160,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1048,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1057,7 +1182,7 @@
       <c r="C23" s="2"/>
       <c r="E23" s="1"/>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -1079,14 +1204,14 @@
         <v>2</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="2"/>
       <c r="E25" s="1"/>
       <c r="F25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -1096,30 +1221,30 @@
       <c r="C26" s="2"/>
       <c r="E26" s="1"/>
       <c r="F26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="2"/>
       <c r="E27" s="1"/>
       <c r="G27" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="2"/>
       <c r="E28" s="1"/>
       <c r="G28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="2"/>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1129,11 +1254,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42301058-EF4F-4F33-BF28-9EBC54926935}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B10:J45"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1143,20 +1268,20 @@
   <sheetData>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
@@ -1164,17 +1289,17 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
@@ -1182,12 +1307,12 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
@@ -1195,23 +1320,23 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="J21" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -1219,97 +1344,97 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1319,195 +1444,204 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7C96F5-FE71-4F48-B866-4C250AE4149A}">
-  <dimension ref="B6:N45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B6:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>63</v>
+      <c r="B11" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>64</v>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D17" t="s">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D18" t="s">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="E20" t="s">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D25" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D22" t="s">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E28" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D23" t="s">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="E25" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="E26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="E27" t="s">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E34" s="2" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="E28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="M29" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="F30" t="s">
-        <v>72</v>
-      </c>
-      <c r="M30" s="2">
-        <v>1</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="E31" t="s">
-        <v>29</v>
-      </c>
-      <c r="M31" s="2">
-        <v>2</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E33" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E34" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F36" t="s">
-        <v>74</v>
+      <c r="E36" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F37" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F38" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F39" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E40" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E42" t="s">
-        <v>78</v>
+      <c r="F40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E43" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D44" t="s">
-        <v>29</v>
+      <c r="E44" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C45" t="s">
-        <v>29</v>
+      <c r="D45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1517,57 +1651,231 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27EFDB8-DEE8-4BA0-A11A-0257156D29C2}">
-  <dimension ref="C8:C22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="9" style="2"/>
+  </cols>
   <sheetData>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C10">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C5" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D10" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C12">
+      <c r="D11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E14" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C14">
+      <c r="F14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D19" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D20" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D24" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C25" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C16">
+      <c r="D25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E26" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D32" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D33" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C34" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18">
+      <c r="D34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D40" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C41" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C22">
-        <v>7</v>
+      <c r="D41" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E42" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>